--- a/planilla de nafta segunda version.xlsx
+++ b/planilla de nafta segunda version.xlsx
@@ -81,14 +81,38 @@
     <t>on axion:</t>
   </si>
   <si>
-    <t xml:space="preserve">OLIVOS COMBUSTIBLES S.R.L.                                        DIA:                                            PLAYEROS:                                                                                                  TURNO:                   </t>
+    <r>
+      <t>OLIVOS COMBUSTIBLES S.R.L.                                        TURNO:                                                             PLAYEROS:                                                                                             DIA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +161,14 @@
     <font>
       <u/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -916,7 +948,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
